--- a/src/demos/zdemo_excel15#13.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15#13.w3mi.data.xlsx
@@ -16,6 +16,9 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+  <si>
+    <t/>
+  </si>
   <si>
     <t>Apple</t>
   </si>
@@ -379,7 +382,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,15 +390,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="0.0000000000000000E+00">
+    <row r="1" spans="1:7">
       <c r=""/>
     </row>
-    <row r="2" spans="1:7" ht="0.0000000000000000E+00">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -403,9 +406,9 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="0.0000000000000000E+00">
+    <row r="4" spans="1:7">
       <c r="B4" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -413,39 +416,39 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="0.0000000000000000E+00">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="0.0000000000000000E+00">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="0.0000000000000000E+00">
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="0.0000000000000000E+00">
-      <c r="B13" t="s">
+      <c r="E13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="0.0000000000000000E+00">
-      <c r="D14" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="0.0000000000000000E+00">
-      <c r="B18" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -453,7 +456,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="0.0000000000000000E+00">
+    <row r="19" spans="1:7">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -461,9 +464,9 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="0.0000000000000000E+00">
+    <row r="21" spans="1:7">
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -471,7 +474,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="0.0000000000000000E+00">
+    <row r="22" spans="1:7">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
